--- a/Cronograma/ActividadesPracticas_Rodriguez.V1.0 .xlsx
+++ b/Cronograma/ActividadesPracticas_Rodriguez.V1.0 .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
   <si>
     <t>ACTIVIDADES REALIZADAS EN LA UNIDAD DE DESARROLLO INFORMATICO</t>
   </si>
@@ -34,259 +34,262 @@
     <t>HORARIO:</t>
   </si>
   <si>
+    <t>09:00 A 15:00</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO:</t>
+  </si>
+  <si>
+    <t>Unidad de Desarrollo Informático -</t>
+  </si>
+  <si>
+    <t>FUNCIÓN:</t>
+  </si>
+  <si>
+    <t>Colaborador en desarrollo del proyecto de una Aplicación web para la automatización de historias clínicas e intervención terapéutica de niños y niñas con discapacidades físicas y congnitivas  especificamente en el modulo de Auditoría</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD</t>
+  </si>
+  <si>
+    <t>RESUMEN SEMANAL</t>
+  </si>
+  <si>
+    <t>Presentacion e induccion de lineamientos</t>
+  </si>
+  <si>
+    <t>Presentación y revision de normativas , levantamiento de herramientas informáticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recopilación, capacitación y analisis inicial </t>
+  </si>
+  <si>
+    <t>Definición de requisitos y diseño funcional</t>
+  </si>
+  <si>
+    <t>Realizar el panel de menu  para autoría</t>
+  </si>
+  <si>
+    <t>Diseño de la base de datos</t>
+  </si>
+  <si>
+    <t>FERIADO</t>
+  </si>
+  <si>
+    <t>Diseño el módulo</t>
+  </si>
+  <si>
+    <t>Capacitacion y guia de las herramientas</t>
+  </si>
+  <si>
+    <t>Ajustar el fronted para el nuevo módulo</t>
+  </si>
+  <si>
+    <t>Codificación de funcionalidades para la sección "Ver Resultado"</t>
+  </si>
+  <si>
+    <t>Codificación de funcionalidades para la seccion "Ver Resultado"</t>
+  </si>
+  <si>
+    <t>Codificación de funcionalidades para la seccion "Filtrar Auditorías","Exportar Auditorías"</t>
+  </si>
+  <si>
+    <t>Realizar pruebas y validar el funcionamiento</t>
+  </si>
+  <si>
+    <t>Entregra del prototipo</t>
+  </si>
+  <si>
+    <t>ACTIVIDADES REALIZADAS EN LAS PÁCTICAS EN LA FUNDACIÓN CON CRISTO</t>
+  </si>
+  <si>
+    <t>FECHA INICIO</t>
+  </si>
+  <si>
+    <t>FECHA FIN</t>
+  </si>
+  <si>
+    <t>Revisar la normativa aplicable al módulo de auditorías.</t>
+  </si>
+  <si>
+    <t>HORARIO</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidad de Desarrollo Informático </t>
+  </si>
+  <si>
+    <t>FUNCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVIDAD </t>
+  </si>
+  <si>
+    <t>TAREA</t>
+  </si>
+  <si>
+    <t>HORAS DE TRABAJO</t>
+  </si>
+  <si>
+    <t>ENCARGADO</t>
+  </si>
+  <si>
+    <t>NUMERO DE HORAS</t>
+  </si>
+  <si>
+    <t>CUMPLIDO</t>
+  </si>
+  <si>
+    <t>Inducción y presentación sobre la infrestructura en la Fundación con Cristo</t>
+  </si>
+  <si>
+    <t>09:00 -12:00</t>
+  </si>
+  <si>
+    <t>Ing.Sancho José Alberto</t>
+  </si>
+  <si>
+    <t>Aplicar técnicas de recopilación de información relacionadas con auditorías.</t>
+  </si>
+  <si>
+    <t>12:00 -15:00</t>
+  </si>
+  <si>
+    <t>09:00 -15:00</t>
+  </si>
+  <si>
+    <t>Betty Rodriguez (Practicante)</t>
+  </si>
+  <si>
+    <t>Revisar los documentos del proceso de existentes.</t>
+  </si>
+  <si>
+    <t>Documentación de requerimientos y alcances.</t>
+  </si>
+  <si>
+    <t>Aprender  las Librería y lenguaje de programación sobre React, JavaScript</t>
+  </si>
+  <si>
+    <t>Aprender las herramientas de desarrollo Docker, Ubuntu, DBeaver</t>
+  </si>
+  <si>
+    <t>Elaborar el documento de requisitos funcionales y no funcionales específicos para auditorías.</t>
+  </si>
+  <si>
+    <t>Definir los datos a mostrar en el historial de auditorías.</t>
+  </si>
+  <si>
+    <t>Identificar los filtros necesarios (usuario, fecha, acción).</t>
+  </si>
+  <si>
+    <t>Establecer los formatos de exportación.</t>
+  </si>
+  <si>
+    <t>Determinar qué usuarios tendrán acceso al módulo.</t>
+  </si>
+  <si>
+    <t>Establecer permisos para cada sección (ej. solo administradores pueden exportar datos).</t>
+  </si>
+  <si>
+    <t>Crear el diseño del menú lateral con la opción "Auditorías".</t>
+  </si>
+  <si>
+    <t>Tabla para registros de auditorías con campos: usuario, acción, fecha, detalle, etc.</t>
+  </si>
+  <si>
+    <t>Configurar las relaciones con tabla de usuario y módulos del sistema</t>
+  </si>
+  <si>
+    <t>Elaborar Diagrama de la base de datos para auditorías.</t>
+  </si>
+  <si>
+    <t>Elaborar Flujo de navegación entre las  secciones "Ver auditorías", "Filtrar Auditoria",Exportar Auditorías" del módulo.</t>
+  </si>
+  <si>
+    <t>Implementar los componentes de las tres secciones principales (Ver, Filtrar, Exportar).</t>
+  </si>
+  <si>
+    <t>Configuración de Software para el manejo de FRONTEND (Visual Studio Coder, Docker, Ubuntu)</t>
+  </si>
+  <si>
+    <t>Ing.Sancho Alberto</t>
+  </si>
+  <si>
+    <t>Instalación y configuración de plataformas y framework (React, Node.js )</t>
+  </si>
+  <si>
+    <t>12:00 -14:00</t>
+  </si>
+  <si>
+    <t>Pruebas de conectividad</t>
+  </si>
+  <si>
+    <t>14:00 -15:00</t>
+  </si>
+  <si>
+    <t>Crear un nuevo componente para el módulo de Auditorías.</t>
+  </si>
+  <si>
+    <t>Implementar botones funcionales: "Ver Historial", "Filtrar", y "Exportar".</t>
+  </si>
+  <si>
+    <t>Codificacion de la funcionalidad para obtener el listado completo de auditorías.</t>
+  </si>
+  <si>
+    <t>Codificacion de la funcionalidad para aplicar filtros y devolver resultados específicos.</t>
+  </si>
+  <si>
+    <t>Codificacion para la funcionalidad de exportar datos en formato CSV o PDF</t>
+  </si>
+  <si>
+    <t>Conectar las vistas del frontend con los endpoints del backend.</t>
+  </si>
+  <si>
+    <t>Validar que los datos se cargan correctamente en el historial.</t>
+  </si>
+  <si>
+    <t>Comprobar que los filtros funcionan según los criterios seleccionados.</t>
+  </si>
+  <si>
+    <t>Probar la exportación de datos en diferentes formatos.</t>
+  </si>
+  <si>
+    <t>Verificar que los usuarios clave pueden acceder y utilizar el módulo.</t>
+  </si>
+  <si>
+    <t>Realizar la guía para usuarios sobre cómo navegar y usar las funciones de auditorías.</t>
+  </si>
+  <si>
+    <t>Generar procesos de documentación de la base de datos</t>
+  </si>
+  <si>
+    <t>Publicar la aplicación en componentes servidor cliente</t>
+  </si>
+  <si>
+    <t>Capacitar a los usuarios clave.</t>
+  </si>
+  <si>
+    <t>Total de horas</t>
+  </si>
+  <si>
+    <t>ACTIVIDADES REALIZADAS EN LAS PRACTICAS PRE PROFECIONEALES</t>
+  </si>
+  <si>
     <t>09:00 A 16:00</t>
   </si>
   <si>
-    <t>DEPARTAMENTO:</t>
-  </si>
-  <si>
-    <t>Unidad de Desarrollo Informático -</t>
-  </si>
-  <si>
-    <t>FUNCIÓN:</t>
-  </si>
-  <si>
-    <t>Colaborador en desarrollo del proyecto de una Aplicación web para la automatización de historias clínicas e intervención terapéutica de niños y niñas con discapacidades físicas y congnitivas  especificamente en el modulo de Auditoría</t>
-  </si>
-  <si>
-    <t>FECHA</t>
-  </si>
-  <si>
-    <t>ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>RESUMEN SEMANAL</t>
-  </si>
-  <si>
-    <t>Presentacion e induccion de lineamientos</t>
-  </si>
-  <si>
-    <t>Presentación y revision de normativas , levantamiento de herramientas informáticas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recopilación, capacitación y analisis inicial </t>
-  </si>
-  <si>
-    <t>Definición de requisitos y diseño funcional</t>
-  </si>
-  <si>
-    <t>Realizar el panel de menu  para autoría</t>
-  </si>
-  <si>
-    <t>Diseño de la base de datos</t>
-  </si>
-  <si>
-    <t>FERIADO</t>
-  </si>
-  <si>
-    <t>Diseño el módulo</t>
-  </si>
-  <si>
-    <t>Capacitacion y guia de las herramientas</t>
-  </si>
-  <si>
-    <t>Ajustar el fronted para el nuevo módulo</t>
-  </si>
-  <si>
-    <t>Codificación de funcionalidades para la sección "Ver Resultado"</t>
-  </si>
-  <si>
-    <t>Codificación de funcionalidades para la seccion "Ver Resultado"</t>
-  </si>
-  <si>
-    <t>Codificación de funcionalidades para la seccion "Filtrar Auditorías","Exportar Auditorías"</t>
-  </si>
-  <si>
-    <t>Realizar pruebas y validar el funcionamiento</t>
-  </si>
-  <si>
-    <t>Entregra del prototipo</t>
-  </si>
-  <si>
-    <t>ACTIVIDADES REALIZADAS EN LAS PÁCTICAS EN LA FUNDACIÓN CON CRISTO</t>
-  </si>
-  <si>
-    <t>FECHA INICIO</t>
-  </si>
-  <si>
-    <t>FECHA FIN</t>
-  </si>
-  <si>
-    <t>HORARIO</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidad de Desarrollo Informático </t>
-  </si>
-  <si>
-    <t>FUNCIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVIDAD </t>
-  </si>
-  <si>
-    <t>TAREA</t>
-  </si>
-  <si>
-    <t>HORAS DE TRABAJO</t>
-  </si>
-  <si>
-    <t>ENCARGADO</t>
-  </si>
-  <si>
-    <t>NUMERO DE HORAS</t>
-  </si>
-  <si>
-    <t>CUMPLIDO</t>
+    <t>Con laborador en desarrollo proyecto Aplicación web para la automatización de historias clínicas e intervención terapéutica de niños y niñas con discapacidades físicas</t>
+  </si>
+  <si>
+    <t>Presentacion e induccion de lineamientos de la direccion de Tecnologias de la Información</t>
   </si>
   <si>
     <t>Introduccion sobre la infrestructura en la Fundación con Cristo</t>
-  </si>
-  <si>
-    <t>09:00 -12:00</t>
-  </si>
-  <si>
-    <t>Ing.Sancho Alberto</t>
-  </si>
-  <si>
-    <t>Aplicar técnicas de recopilación de información relacionadas con auditorías.</t>
-  </si>
-  <si>
-    <t>13:00 -16:00</t>
-  </si>
-  <si>
-    <t>Revisar la normativa aplicable al módulo de auditorías.</t>
-  </si>
-  <si>
-    <t>09:00 -16:00</t>
-  </si>
-  <si>
-    <t>Betty Rodriguez (Practicante)</t>
-  </si>
-  <si>
-    <t>Revisar los documentos del proceso de existentes.</t>
-  </si>
-  <si>
-    <t>Documentación de requerimientos y alcances.</t>
-  </si>
-  <si>
-    <t>Aprender  las Librería y lenguajes de programación sobre React, JavaScript</t>
-  </si>
-  <si>
-    <t>Aprender las herramientas de desarrollo Docker, Ubuntu, DBeaver</t>
-  </si>
-  <si>
-    <t>Elaborar el documento de requisitos funcionales y no funcionales específicos para auditorías.</t>
-  </si>
-  <si>
-    <t>Definir los datos a mostrar en el historial de auditorías.</t>
-  </si>
-  <si>
-    <t>Identificar los filtros necesarios (usuario, fecha, acción).</t>
-  </si>
-  <si>
-    <t>Establecer los formatos de exportación.</t>
-  </si>
-  <si>
-    <t>Determinar qué usuarios tendrán acceso al módulo.</t>
-  </si>
-  <si>
-    <t>Establecer permisos para cada sección (ej. solo administradores pueden exportar datos).</t>
-  </si>
-  <si>
-    <t>Crear el diseño del menú lateral con la opción "Auditorías".</t>
-  </si>
-  <si>
-    <t>Tabla para registros de auditorías con campos: usuario, acción, fecha, detalle, etc.</t>
-  </si>
-  <si>
-    <t>09:00 -16:01</t>
-  </si>
-  <si>
-    <t>Configurar las relaciones con tabla de usuario y módulos del sistema</t>
-  </si>
-  <si>
-    <t>09:00 -16:02</t>
-  </si>
-  <si>
-    <t>Elaborar Diagrama de la base de datos para auditorías.</t>
-  </si>
-  <si>
-    <t>Elaborar Flujo de navegación entre las tres secciones del módulo.</t>
-  </si>
-  <si>
-    <t>Implementar los componentes de las tres secciones principales (Ver, Filtrar, Exportar).</t>
-  </si>
-  <si>
-    <t>Configuración de Software para el manejo de FRONTEND (Visual Studio Coder, Docker, Ubuntu)</t>
-  </si>
-  <si>
-    <t>Instalación y configuración de plataformas y framework (React, Node.js )</t>
-  </si>
-  <si>
-    <t>12:00 -15:00</t>
-  </si>
-  <si>
-    <t>Pruebas de conectividad</t>
-  </si>
-  <si>
-    <t>15:00 -16:00</t>
-  </si>
-  <si>
-    <t>Crear un nuevo componente para el módulo de Auditorías.</t>
-  </si>
-  <si>
-    <t>Implementar botones funcionales: "Ver Historial", "Filtrar", y "Exportar".</t>
-  </si>
-  <si>
-    <t>Codificacion de la funcionalidad para obtener el listado completo de auditorías.</t>
-  </si>
-  <si>
-    <t>Codificacion de la funcionalidad para aplicar filtros y devolver resultados específicos.</t>
-  </si>
-  <si>
-    <t>Codificacion para la funcionalidad de exportar datos en formato CSV o PDF</t>
-  </si>
-  <si>
-    <t>Conectar las vistas del frontend con los endpoints del backend.</t>
-  </si>
-  <si>
-    <t>Validar que los datos se cargan correctamente en el historial.</t>
-  </si>
-  <si>
-    <t>Comprobar que los filtros funcionan según los criterios seleccionados.</t>
-  </si>
-  <si>
-    <t>Probar la exportación de datos en diferentes formatos.</t>
-  </si>
-  <si>
-    <t>Verificar que los usuarios clave pueden acceder y utilizar el módulo.</t>
-  </si>
-  <si>
-    <t>Realizar la guía para usuarios sobre cómo navegar y usar las funciones de auditorías.</t>
-  </si>
-  <si>
-    <t>Generar procesos de documentación de la base de datos</t>
-  </si>
-  <si>
-    <t>Publicar la aplicación en componentes servidor cliente</t>
-  </si>
-  <si>
-    <t>Capacitar a los usuarios clave.</t>
-  </si>
-  <si>
-    <t>Total de horas</t>
-  </si>
-  <si>
-    <t>ACTIVIDADES REALIZADAS EN LAS PRACTICAS PRE PROFECIONEALES</t>
-  </si>
-  <si>
-    <t>Con laborador en desarrollo proyecto Aplicación web para la automatización de historias clínicas e intervención terapéutica de niños y niñas con discapacidades físicas</t>
-  </si>
-  <si>
-    <t>Presentacion e induccion de lineamientos de la direccion de Tecnologias de la Información</t>
   </si>
   <si>
     <t>09:00 -10:00</t>
@@ -1003,6 +1006,9 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1033,9 +1039,6 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1132,7 +1135,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -2099,92 +2102,95 @@
       <c r="B3" s="27">
         <v>45687.0</v>
       </c>
+      <c r="C3" s="28" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="28" t="s">
         <v>34</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="G8" s="31" t="s">
         <v>41</v>
       </c>
+      <c r="H8" s="32" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="32">
+      <c r="A9" s="33">
         <v>45614.0</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="35">
+      <c r="D9" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="36">
         <v>3.0</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="37">
+      <c r="F9" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="38">
         <f>E9+E10</f>
         <v>6</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="39">
         <f>SUM(G9:G24,G26:G37)</f>
         <v>144</v>
       </c>
-      <c r="K9" s="39"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="43">
         <v>3.0</v>
@@ -2197,26 +2203,26 @@
       <c r="A11" s="46">
         <v>45615.0</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="48">
         <v>6.0</v>
       </c>
       <c r="H11" s="45"/>
-      <c r="K11" s="39"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12">
       <c r="A12" s="49">
@@ -2237,7 +2243,7 @@
         <v>6.0</v>
       </c>
       <c r="H12" s="45"/>
-      <c r="K12" s="39"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13">
       <c r="A13" s="49">
@@ -2258,7 +2264,7 @@
         <v>6.0</v>
       </c>
       <c r="H13" s="45"/>
-      <c r="K13" s="39"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14">
       <c r="A14" s="54">
@@ -2268,8 +2274,8 @@
       <c r="C14" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>43</v>
+      <c r="D14" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="51">
         <v>3.0</v>
@@ -2279,7 +2285,7 @@
         <v>6.0</v>
       </c>
       <c r="H14" s="45"/>
-      <c r="K14" s="39"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15">
       <c r="A15" s="40"/>
@@ -2288,7 +2294,7 @@
         <v>53</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="43">
         <v>3.0</v>
@@ -2296,32 +2302,32 @@
       <c r="F15" s="41"/>
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
-      <c r="K15" s="39"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16">
       <c r="A16" s="46">
         <v>45621.0</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="48">
         <v>6.0</v>
       </c>
       <c r="H16" s="45"/>
-      <c r="K16" s="39"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17">
       <c r="A17" s="49">
@@ -2342,7 +2348,7 @@
         <v>6.0</v>
       </c>
       <c r="H17" s="45"/>
-      <c r="K17" s="39"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18">
       <c r="A18" s="49">
@@ -2363,8 +2369,8 @@
         <v>6.0</v>
       </c>
       <c r="H18" s="45"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19">
       <c r="A19" s="49">
@@ -2385,7 +2391,7 @@
         <v>6.0</v>
       </c>
       <c r="H19" s="45"/>
-      <c r="K19" s="39"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20">
       <c r="A20" s="49">
@@ -2406,7 +2412,7 @@
         <v>6.0</v>
       </c>
       <c r="H20" s="45"/>
-      <c r="K20" s="39"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21">
       <c r="A21" s="58">
@@ -2456,19 +2462,19 @@
       <c r="A23" s="46">
         <v>45630.0</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="F23" s="36" t="s">
+      <c r="D23" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="F23" s="37" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="48">
@@ -2482,10 +2488,10 @@
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E24" s="43">
         <v>6.0</v>
@@ -2514,19 +2520,19 @@
       <c r="A26" s="46">
         <v>45635.0</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="F26" s="36" t="s">
+      <c r="E26" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="F26" s="37" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="48">
@@ -2540,7 +2546,7 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>48</v>
@@ -2560,7 +2566,7 @@
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>48</v>
@@ -2578,20 +2584,20 @@
       <c r="A29" s="54">
         <v>45638.0</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E29" s="78">
         <v>3.0</v>
       </c>
-      <c r="F29" s="36" t="s">
-        <v>44</v>
+      <c r="F29" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="G29" s="79">
         <f>E29+E30+E31</f>
@@ -2603,10 +2609,10 @@
       <c r="A30" s="80"/>
       <c r="B30" s="15"/>
       <c r="C30" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="78" t="s">
         <v>69</v>
-      </c>
-      <c r="D30" s="78" t="s">
-        <v>70</v>
       </c>
       <c r="E30" s="78">
         <v>2.0</v>
@@ -2619,10 +2625,10 @@
       <c r="A31" s="40"/>
       <c r="B31" s="41"/>
       <c r="C31" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>72</v>
       </c>
       <c r="E31" s="82">
         <v>1.0</v>
@@ -2635,19 +2641,19 @@
       <c r="A32" s="46">
         <v>45639.0</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="F32" s="36" t="s">
+      <c r="E32" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="F32" s="37" t="s">
         <v>49</v>
       </c>
       <c r="G32" s="48">
@@ -2679,7 +2685,7 @@
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="51" t="s">
         <v>48</v>
@@ -2737,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="64" t="s">
         <v>48</v>
@@ -2765,7 +2771,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
       <c r="G38" s="90"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39">
       <c r="A39" s="91">
@@ -2773,7 +2779,7 @@
       </c>
       <c r="B39" s="92"/>
       <c r="G39" s="93"/>
-      <c r="H39" s="39"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40">
       <c r="A40" s="91">
@@ -2781,7 +2787,7 @@
       </c>
       <c r="B40" s="92"/>
       <c r="G40" s="93"/>
-      <c r="H40" s="39"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="41">
       <c r="A41" s="91">
@@ -2789,7 +2795,7 @@
       </c>
       <c r="B41" s="92"/>
       <c r="G41" s="93"/>
-      <c r="H41" s="39"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42">
       <c r="A42" s="91">
@@ -2797,7 +2803,7 @@
       </c>
       <c r="B42" s="92"/>
       <c r="G42" s="93"/>
-      <c r="H42" s="39"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43">
       <c r="A43" s="91">
@@ -2805,7 +2811,7 @@
       </c>
       <c r="B43" s="92"/>
       <c r="G43" s="93"/>
-      <c r="H43" s="39"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44">
       <c r="A44" s="91">
@@ -2813,7 +2819,7 @@
       </c>
       <c r="B44" s="92"/>
       <c r="G44" s="93"/>
-      <c r="H44" s="39"/>
+      <c r="H44" s="28"/>
     </row>
     <row r="45">
       <c r="A45" s="91">
@@ -2821,7 +2827,7 @@
       </c>
       <c r="B45" s="92"/>
       <c r="G45" s="93"/>
-      <c r="H45" s="39"/>
+      <c r="H45" s="28"/>
     </row>
     <row r="46">
       <c r="A46" s="91">
@@ -2829,7 +2835,7 @@
       </c>
       <c r="B46" s="92"/>
       <c r="G46" s="93"/>
-      <c r="H46" s="39"/>
+      <c r="H46" s="28"/>
     </row>
     <row r="47">
       <c r="A47" s="94">
@@ -2841,31 +2847,31 @@
       <c r="E47" s="96"/>
       <c r="F47" s="96"/>
       <c r="G47" s="97"/>
-      <c r="H47" s="39"/>
+      <c r="H47" s="28"/>
     </row>
     <row r="48">
       <c r="A48" s="46">
         <v>45663.0</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="F48" s="36" t="s">
+      <c r="E48" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="F48" s="37" t="s">
         <v>49</v>
       </c>
       <c r="G48" s="48">
         <v>6.0</v>
       </c>
-      <c r="H48" s="39"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49">
       <c r="A49" s="49">
@@ -2939,19 +2945,19 @@
       <c r="A53" s="46">
         <v>45670.0</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="F53" s="36" t="s">
+      <c r="E53" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="F53" s="37" t="s">
         <v>49</v>
       </c>
       <c r="G53" s="48">
@@ -3032,7 +3038,7 @@
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58" s="51" t="s">
         <v>48</v>
@@ -3085,7 +3091,7 @@
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" s="51" t="s">
         <v>48</v>
@@ -3118,25 +3124,25 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="32">
+      <c r="A63" s="33">
         <v>45684.0</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="35">
+        <v>78</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="36">
         <v>3.0</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="G63" s="37">
+      <c r="G63" s="38">
         <v>6.0</v>
       </c>
     </row>
@@ -3144,10 +3150,10 @@
       <c r="A64" s="103"/>
       <c r="B64" s="15"/>
       <c r="C64" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="51" t="s">
-        <v>46</v>
+        <v>79</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="E64" s="51">
         <v>3.0</v>
@@ -3161,10 +3167,10 @@
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="51" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="E65" s="51">
         <v>3.0</v>
@@ -3178,10 +3184,10 @@
       <c r="A66" s="40"/>
       <c r="B66" s="41"/>
       <c r="C66" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E66" s="43">
         <v>3.0</v>
@@ -3190,25 +3196,25 @@
       <c r="G66" s="44"/>
     </row>
     <row r="67">
-      <c r="A67" s="32">
+      <c r="A67" s="33">
         <v>45686.0</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="107" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="35">
+        <v>82</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="36">
         <v>3.0</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="37">
+      <c r="G67" s="38">
         <v>6.0</v>
       </c>
     </row>
@@ -3216,10 +3222,10 @@
       <c r="A68" s="103"/>
       <c r="B68" s="15"/>
       <c r="C68" s="108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E68" s="51">
         <v>3.0</v>
@@ -3233,10 +3239,10 @@
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="51" t="s">
-        <v>43</v>
+        <v>84</v>
+      </c>
+      <c r="D69" s="78" t="s">
+        <v>44</v>
       </c>
       <c r="E69" s="51">
         <v>3.0</v>
@@ -3250,10 +3256,10 @@
       <c r="A70" s="40"/>
       <c r="B70" s="41"/>
       <c r="C70" s="109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E70" s="43">
         <v>3.0</v>
@@ -3264,14 +3270,14 @@
     <row r="71">
       <c r="A71" s="23"/>
       <c r="D71" s="110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E71" s="111">
         <f>SUM(E9:E37,E48:E70)</f>
         <v>258</v>
       </c>
       <c r="F71" s="112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71" s="110">
         <f>SUM(G9:G70)</f>
@@ -3362,8 +3368,8 @@
       <c r="B1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>88</v>
+      <c r="F1" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2">
@@ -3384,25 +3390,25 @@
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="28" t="s">
         <v>34</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3411,23 +3417,23 @@
         <v>11</v>
       </c>
       <c r="B8" s="114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="114"/>
       <c r="F8" s="114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -3438,10 +3444,10 @@
         <v>90</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="51">
         <v>1.0</v>
@@ -3457,10 +3463,10 @@
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" s="51">
         <v>2.0</v>
@@ -3473,10 +3479,10 @@
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E11" s="51">
         <v>3.0</v>
@@ -3490,10 +3496,10 @@
         <v>45615.0</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" s="115"/>
       <c r="E12" s="115"/>
@@ -3505,7 +3511,7 @@
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" s="115"/>
       <c r="E13" s="115"/>
@@ -3517,7 +3523,7 @@
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="115"/>
       <c r="E14" s="115"/>
@@ -3530,10 +3536,10 @@
         <v>45616.0</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
@@ -3545,7 +3551,7 @@
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
@@ -3557,7 +3563,7 @@
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" s="115"/>
       <c r="E17" s="115"/>
@@ -3630,7 +3636,7 @@
         <v>45624.0</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" s="115"/>
       <c r="D23" s="115"/>
@@ -4050,7 +4056,7 @@
     <row r="58">
       <c r="A58" s="23"/>
       <c r="G58" s="113"/>
-      <c r="H58" s="39">
+      <c r="H58" s="28">
         <v>24.0</v>
       </c>
     </row>
@@ -4118,7 +4124,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -4126,7 +4132,7 @@
     </row>
     <row r="2">
       <c r="A2" s="119" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="121">
         <v>45614.0</v>
@@ -4136,16 +4142,16 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="122" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -4351,8 +4357,8 @@
       <c r="B18" s="127"/>
       <c r="C18" s="127"/>
       <c r="D18" s="128"/>
-      <c r="E18" s="39" t="s">
-        <v>110</v>
+      <c r="E18" s="28" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19">
@@ -4503,7 +4509,7 @@
       <c r="C29" s="127"/>
       <c r="D29" s="128"/>
       <c r="E29" s="129" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
